--- a/doc/_meeting_doc/N2_Team_ObjList.xlsx
+++ b/doc/_meeting_doc/N2_Team_ObjList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테라포밍 돔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ob_tera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ob_Buid_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,7 +163,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ob_</t>
+    <t>Ob_Pole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_PowerStation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Lake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_PanicRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 내부의 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라포밍 돔 내에 다양한 건물들을 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돔 형태의 화성 1/3정도의 크기가 되는 테라포밍 존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라포밍 존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ob_TeraZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍쉽이 처음 출발하는 곳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,6 +454,716 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2831523</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1568823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="874059"/>
+          <a:ext cx="2831523" cy="1568823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3272118</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1211333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="2521325"/>
+          <a:ext cx="3272118" cy="1211332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3258231</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1344706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257736" y="4168588"/>
+          <a:ext cx="3258230" cy="1344706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3191881</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1512795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="5815854"/>
+          <a:ext cx="3191881" cy="1512794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2173941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1439061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="7463118"/>
+          <a:ext cx="2173941" cy="1439061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2823883</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1593939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="9110382"/>
+          <a:ext cx="2823883" cy="1593939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1593527</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1568824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="10757648"/>
+          <a:ext cx="1593527" cy="1568823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2354030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="12404912"/>
+          <a:ext cx="2354030" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2387670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1568823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257734" y="14052176"/>
+          <a:ext cx="2387671" cy="1568823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2483170</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1568824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257734" y="15699441"/>
+          <a:ext cx="2483171" cy="1568824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2159455</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1602441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257736" y="17346707"/>
+          <a:ext cx="2159454" cy="1602440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1613647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1572004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="18993971"/>
+          <a:ext cx="1613647" cy="1572004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257175" y="20640675"/>
+          <a:ext cx="2428875" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257175" y="22288500"/>
+          <a:ext cx="2066925" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2907990</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257735" y="23935765"/>
+          <a:ext cx="2907990" cy="1647264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,21 +1457,22 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="129.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="22.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="3" customWidth="1"/>
     <col min="4" max="5" width="22.625" style="9" customWidth="1"/>
     <col min="6" max="7" width="22.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="43.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="43.375" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" thickBot="1"/>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:9" s="9" customFormat="1" ht="17.25" thickTop="1">
       <c r="B2" s="12" t="s">
         <v>0</v>
@@ -758,10 +1525,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="71.25" customHeight="1">
+    <row r="4" spans="2:9" ht="129.75" customHeight="1">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
@@ -770,127 +1537,136 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="2:9" ht="71.25" customHeight="1">
+    <row r="5" spans="2:9" ht="129.75" customHeight="1">
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" ht="71.25" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="129.75" customHeight="1">
       <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="71.25" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="129.75" customHeight="1">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="2:9" ht="71.25" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="129.75" customHeight="1">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="2:9" ht="71.25" customHeight="1">
+    <row r="9" spans="2:9" ht="129.75" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="2:9" ht="71.25" customHeight="1">
+    <row r="10" spans="2:9" ht="129.75" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -898,18 +1674,21 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="2:9" ht="71.25" customHeight="1">
+    <row r="11" spans="2:9" ht="129.75" customHeight="1">
       <c r="B11" s="8"/>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -917,18 +1696,21 @@
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="71.25" customHeight="1">
+    <row r="12" spans="2:9" ht="129.75" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -936,39 +1718,43 @@
       <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="71.25" customHeight="1">
+    <row r="13" spans="2:9" ht="129.75" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="71.25" customHeight="1">
+    <row r="14" spans="2:9" ht="129.75" customHeight="1">
       <c r="B14" s="8"/>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -976,19 +1762,21 @@
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="2:9" ht="71.25" customHeight="1">
+    <row r="15" spans="2:9" ht="129.75" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -996,19 +1784,21 @@
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="2:9" ht="71.25" customHeight="1">
+    <row r="16" spans="2:9" ht="129.75" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1016,19 +1806,21 @@
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="2:9" ht="71.25" customHeight="1">
+    <row r="17" spans="2:9" ht="129.75" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1036,36 +1828,42 @@
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:9" ht="71.25" customHeight="1">
+    <row r="18" spans="2:9" ht="129.75" customHeight="1">
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="2:9" ht="71.25" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="129.75" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
@@ -1075,7 +1873,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:9" ht="71.25" customHeight="1">
+    <row r="20" spans="2:9" ht="129.75" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
@@ -1085,7 +1883,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:9" ht="71.25" customHeight="1">
+    <row r="21" spans="2:9" ht="129.75" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
@@ -1095,7 +1893,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="71.25" customHeight="1">
+    <row r="22" spans="2:9" ht="129.75" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
@@ -1105,7 +1903,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="71.25" customHeight="1">
+    <row r="23" spans="2:9" ht="129.75" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
@@ -1115,7 +1913,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="71.25" customHeight="1">
+    <row r="24" spans="2:9" ht="129.75" customHeight="1">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
@@ -1125,7 +1923,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="71.25" customHeight="1">
+    <row r="25" spans="2:9" ht="129.75" customHeight="1">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
@@ -1135,7 +1933,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" ht="71.25" customHeight="1">
+    <row r="26" spans="2:9" ht="129.75" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
@@ -1145,7 +1943,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="2:9" ht="71.25" customHeight="1">
+    <row r="27" spans="2:9" ht="129.75" customHeight="1">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
@@ -1155,35 +1953,35 @@
       <c r="H27" s="15"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="2:9" ht="71.25" customHeight="1">
+    <row r="28" spans="2:9" ht="129.75" customHeight="1">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="H28" s="15"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="2:9" ht="71.25" customHeight="1">
+    <row r="29" spans="2:9" ht="129.75" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="H29" s="15"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="2:9" ht="71.25" customHeight="1">
+    <row r="30" spans="2:9" ht="129.75" customHeight="1">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="H30" s="15"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="2:9" ht="71.25" customHeight="1">
+    <row r="31" spans="2:9" ht="129.75" customHeight="1">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="H31" s="15"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="2:9" ht="71.25" customHeight="1">
+    <row r="32" spans="2:9" ht="129.75" customHeight="1">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1"/>
@@ -1193,7 +1991,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:9" ht="71.25" customHeight="1">
+    <row r="33" spans="2:9" ht="129.75" customHeight="1">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="1"/>
@@ -1203,7 +2001,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="71.25" customHeight="1">
+    <row r="34" spans="2:9" ht="129.75" customHeight="1">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
@@ -1213,7 +2011,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="2:9" ht="71.25" customHeight="1">
+    <row r="35" spans="2:9" ht="129.75" customHeight="1">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="1"/>
@@ -1223,7 +2021,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="2:9" ht="71.25" customHeight="1">
+    <row r="36" spans="2:9" ht="129.75" customHeight="1">
       <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="1"/>
@@ -1233,7 +2031,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="2:9" ht="71.25" customHeight="1">
+    <row r="37" spans="2:9" ht="129.75" customHeight="1">
       <c r="B37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="1"/>
@@ -1243,7 +2041,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="2:9" ht="71.25" customHeight="1">
+    <row r="38" spans="2:9" ht="129.75" customHeight="1">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="1"/>
@@ -1253,7 +2051,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="2:9" ht="71.25" customHeight="1">
+    <row r="39" spans="2:9" ht="129.75" customHeight="1">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="1"/>
@@ -1263,7 +2061,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="2:9" ht="71.25" customHeight="1">
+    <row r="40" spans="2:9" ht="129.75" customHeight="1">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="D40" s="1"/>
@@ -1273,7 +2071,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="2:9" ht="71.25" customHeight="1">
+    <row r="41" spans="2:9" ht="129.75" customHeight="1">
       <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
@@ -1283,7 +2081,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="2:9" ht="71.25" customHeight="1">
+    <row r="42" spans="2:9" ht="129.75" customHeight="1">
       <c r="B42" s="8"/>
       <c r="C42" s="5"/>
       <c r="D42" s="1"/>
@@ -1293,7 +2091,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="2:9" ht="71.25" customHeight="1">
+    <row r="43" spans="2:9" ht="129.75" customHeight="1">
       <c r="B43" s="8"/>
       <c r="C43" s="5"/>
       <c r="D43" s="1"/>
@@ -1303,7 +2101,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="2:9" ht="71.25" customHeight="1">
+    <row r="44" spans="2:9" ht="129.75" customHeight="1">
       <c r="B44" s="8"/>
       <c r="C44" s="5"/>
       <c r="D44" s="1"/>
@@ -1313,7 +2111,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="2:9" ht="71.25" customHeight="1">
+    <row r="45" spans="2:9" ht="129.75" customHeight="1">
       <c r="B45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="1"/>
@@ -1323,7 +2121,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="2:9" ht="71.25" customHeight="1">
+    <row r="46" spans="2:9" ht="129.75" customHeight="1">
       <c r="B46" s="8"/>
       <c r="C46" s="5"/>
       <c r="D46" s="1"/>
@@ -1333,7 +2131,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="2:9" ht="71.25" customHeight="1">
+    <row r="47" spans="2:9" ht="129.75" customHeight="1">
       <c r="B47" s="8"/>
       <c r="C47" s="5"/>
       <c r="D47" s="1"/>
@@ -1343,7 +2141,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="2:9" ht="71.25" customHeight="1">
+    <row r="48" spans="2:9" ht="129.75" customHeight="1">
       <c r="B48" s="8"/>
       <c r="C48" s="5"/>
       <c r="D48" s="1"/>
@@ -1353,7 +2151,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="2:9" ht="71.25" customHeight="1">
+    <row r="49" spans="2:9" ht="129.75" customHeight="1">
       <c r="B49" s="8"/>
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
@@ -1363,7 +2161,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="2:9" ht="71.25" customHeight="1">
+    <row r="50" spans="2:9" ht="129.75" customHeight="1">
       <c r="B50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="1"/>
@@ -1373,7 +2171,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="2:9" ht="71.25" customHeight="1">
+    <row r="51" spans="2:9" ht="129.75" customHeight="1">
       <c r="B51" s="8"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1"/>
@@ -1383,7 +2181,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="2:9" ht="71.25" customHeight="1">
+    <row r="52" spans="2:9" ht="129.75" customHeight="1">
       <c r="B52" s="8"/>
       <c r="C52" s="5"/>
       <c r="D52" s="1"/>
@@ -1393,7 +2191,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="2:9" ht="71.25" customHeight="1">
+    <row r="53" spans="2:9" ht="129.75" customHeight="1">
       <c r="B53" s="8"/>
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
@@ -1403,7 +2201,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="2:9" ht="71.25" customHeight="1">
+    <row r="54" spans="2:9" ht="129.75" customHeight="1">
       <c r="B54" s="8"/>
       <c r="C54" s="5"/>
       <c r="D54" s="1"/>
@@ -1413,7 +2211,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="2:9" ht="71.25" customHeight="1">
+    <row r="55" spans="2:9" ht="129.75" customHeight="1">
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
       <c r="D55" s="1"/>
@@ -1423,7 +2221,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="2:9" ht="71.25" customHeight="1">
+    <row r="56" spans="2:9" ht="129.75" customHeight="1">
       <c r="B56" s="8"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1"/>
@@ -1437,6 +2235,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
